--- a/src/components/Datos.xlsx
+++ b/src/components/Datos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
   <si>
     <t>Carpeta</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Customizado</t>
   </si>
   <si>
-    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2FProyecto%20ASHGHAL%2F01%2E%20Deployment%20Architecture&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FMeter%20Asset%20Mgm&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
   </si>
   <si>
     <t>Plantilla V3 GoAigua Architecture - Español.docx</t>
@@ -85,17 +85,225 @@
     <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F01%2E%20Deployment%20Architecture&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
   </si>
   <si>
-    <t>Prueba</t>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F02%20Cybersecurity&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
   </si>
   <si>
-    <t>Prueba2</t>
+    <t>03. Inventory Requirements to Product</t>
+  </si>
+  <si>
+    <t>Inventory Requirements to Product English.xlsx</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F03%2E%20Inventory%20Requirements%20to%20Product%2FDOC%5FEN&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>Inventory Requirements to Product Español.xlsx</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F03%2E%20Inventory%20Requirements%20to%20Product%2FDOC%5FES&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>04. Inventory Solutions by requirement</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F04%2E%20Inventory%20Solutions%20by%20requirement%2FDOC%5FES&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F04%2E%20Inventory%20Solutions%20by%20requirement%2FDOC%5FEN&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>05. Session Schedule for each solution</t>
+  </si>
+  <si>
+    <t>01. SWE /Data Science Framework (DSF)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F01%2E%20SWE%2FData%20Science%20Framework%20%28DSF%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>01. SWE /Device Management (DM)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F01%2E%20SWE%2FDevice%20Management%20%28DM%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>01. SWE /Domain Master Data (DMD)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F01%2E%20SWE%2FDomain%20Master%20Data%20%28DMD%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>01. SWE /DT Builder</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F01%2E%20SWE%2FDT%20Builder&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>01. SWE /GIS</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F01%2E%20SWE%2FGIS&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>01. SWE /IoT Core</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Drinking Water - Real Time &amp; What if Scenario (DW - RTWIF)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FDrinking%20Water%20%2D%20Real%20Time%20%26%20What%20if%20Scenario%20%28DW%20%2D%20RTWIF%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Leak Detection (LD)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FLeak%20Detection%20%28LD%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Meter Asset Mgm</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Meter Data Analytics</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FMeter%20Data%20Analytics&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Pipe Planner</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FPipe%20Planner&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Plant Mgm</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FPlant%20Mgm&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>02. Drinking Water Solutions /
+Unified Network Management (UNM)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F02%2E%20Drinking%20Water%20Solutions%2FUnified%20Network%20Management%20%28UNM%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Biological Monitoring</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FBiological%20Monitoring&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Clog Monitoring</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FClog%20Monitoring&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Odour Management</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FOdour%20Management&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Plant Mgm</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FPlant%20Mgm&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Sewer Tracker</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FSewer%20Tracker&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+SewerProtect</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FSewerProtect&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Unified Network Management (UNM)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FUnified%20Network%20Management%20%28UNM%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Unified Plant Management (UPM)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FUnified%20Plant%20Management%20%28UPM%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>03. Waste Water Solutions /
+Waste Water - Real Time &amp; What if Scenario (WW - RTWIF)</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F03%2E%20Waste%20Water%20Solutions%2FWaste%20Water%20%2D%20Real%20Time%20%26%20What%20if%20Scenario%20%28WW%20%2D%20RTWIF%29&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>04. Agriculture Solutions / AgroTwin</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F04%2E%20Agriculture%20Solutions%2FAgroTwin&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>05. Water Resources / EWS</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F05%2E%20Water%20Resources&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>06. Cross Apps / Billing</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F06%2E%20Cross%20Apps%2FBilling&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>06. Cross Apps / Portal</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F06%2E%20Cross%20Apps%2FPortal&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>06. Cross Apps / BI</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F07%2E%20Business%20Intelligence%2FBI&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>07. Business Intelligence/ SOC</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F05%2E%20Session%20Schedule%20for%20each%20solution%2F07%2E%20Business%20Intelligence%2FSOC&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
+  </si>
+  <si>
+    <t>06. JIRA Parameterisation</t>
+  </si>
+  <si>
+    <t>https://gohub.sharepoint.com/sites/DepartamentoProyectosIT/Documentos%20compartidos/Forms/AllItems.aspx?e=5%3A4e0613e91e174f908ed9c6b0b793a8b1&amp;sharingv2=true&amp;fromShare=true&amp;at=9&amp;CT=1710327999722&amp;OR=OWA%2DNT%2DMail&amp;CID=7a80a605%2Db69b%2D6177%2D7d25%2D50591b2e1c83&amp;FolderCTID=0x0120007A5D646A170E994AA6CB70E09BD8EAA4&amp;id=%2Fsites%2FDepartamentoProyectosIT%2FDocumentos%20compartidos%2FArquitectura%20IT%2FDocumentos%20Arquitectura%20IT%2F02%20GEN%C3%89RICA%2F18%2E%20Others%2FPlantillas%2F06%2E%20JIRA%20Parameterisation&amp;viewid=37eabb69%2D1cfb%2D4710%2Db4c7%2D69143f83f9d3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -129,6 +337,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -163,6 +376,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,7 +597,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="36.63"/>
-    <col customWidth="1" min="2" max="2" width="24.63"/>
+    <col customWidth="1" min="2" max="2" width="35.38"/>
     <col customWidth="1" min="3" max="3" width="45.13"/>
     <col customWidth="1" min="4" max="4" width="16.25"/>
     <col customWidth="1" min="6" max="6" width="62.38"/>
@@ -619,7 +835,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
@@ -692,54 +908,26 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -748,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -772,21 +960,21 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -810,15 +998,11 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -826,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -850,12 +1034,20 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -878,12 +1070,22 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -906,12 +1108,22 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -934,12 +1146,22 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -962,12 +1184,22 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -990,12 +1222,22 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1018,12 +1260,22 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1046,12 +1298,22 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1074,12 +1336,22 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1102,12 +1374,22 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1130,12 +1412,22 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1158,12 +1450,22 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1186,12 +1488,22 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1214,12 +1526,22 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1242,12 +1564,22 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1270,12 +1602,22 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1298,12 +1640,22 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1326,12 +1678,22 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1354,12 +1716,22 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1382,12 +1754,22 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1410,12 +1792,22 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1438,12 +1830,22 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1466,12 +1868,22 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1494,12 +1906,22 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1522,12 +1944,22 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1550,12 +1982,22 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1578,12 +2020,22 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1606,12 +2058,22 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1634,12 +2096,22 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1662,12 +2134,20 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -28485,62 +28965,6 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -28554,7 +28978,37 @@
     <hyperlink r:id="rId9" ref="F10"/>
     <hyperlink r:id="rId10" ref="F11"/>
     <hyperlink r:id="rId11" ref="F12"/>
+    <hyperlink r:id="rId12" ref="F13"/>
+    <hyperlink r:id="rId13" ref="F14"/>
+    <hyperlink r:id="rId14" ref="F15"/>
+    <hyperlink r:id="rId15" ref="F16"/>
+    <hyperlink r:id="rId16" ref="F17"/>
+    <hyperlink r:id="rId17" ref="F18"/>
+    <hyperlink r:id="rId18" ref="F19"/>
+    <hyperlink r:id="rId19" ref="F20"/>
+    <hyperlink r:id="rId20" ref="F21"/>
+    <hyperlink r:id="rId21" ref="F22"/>
+    <hyperlink r:id="rId22" ref="F23"/>
+    <hyperlink r:id="rId23" ref="F24"/>
+    <hyperlink r:id="rId24" ref="F25"/>
+    <hyperlink r:id="rId25" ref="F26"/>
+    <hyperlink r:id="rId26" ref="F27"/>
+    <hyperlink r:id="rId27" ref="F28"/>
+    <hyperlink r:id="rId28" ref="F29"/>
+    <hyperlink r:id="rId29" ref="F30"/>
+    <hyperlink r:id="rId30" ref="F31"/>
+    <hyperlink r:id="rId31" ref="F32"/>
+    <hyperlink r:id="rId32" ref="F33"/>
+    <hyperlink r:id="rId33" ref="F34"/>
+    <hyperlink r:id="rId34" ref="F35"/>
+    <hyperlink r:id="rId35" ref="F36"/>
+    <hyperlink r:id="rId36" ref="F37"/>
+    <hyperlink r:id="rId37" ref="F38"/>
+    <hyperlink r:id="rId38" ref="F39"/>
+    <hyperlink r:id="rId39" ref="F40"/>
+    <hyperlink r:id="rId40" ref="F41"/>
+    <hyperlink r:id="rId41" ref="F42"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId42"/>
 </worksheet>
 </file>